--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="507">
   <si>
     <t>Nº</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>malakai</t>
+  </si>
+  <si>
+    <t>Iphone</t>
   </si>
   <si>
     <t>magic matt</t>
@@ -2712,8 +2715,8 @@
   <sheetPr/>
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2800,6 +2803,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="1">
         <v>41269</v>
       </c>
@@ -2809,13 +2815,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>41283</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2823,16 +2829,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>41297</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2856,13 +2862,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>41339</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2870,13 +2876,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>41353</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2900,7 +2906,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>41396</v>
@@ -2919,13 +2925,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>41423</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2933,16 +2939,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <v>41437</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2950,13 +2956,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <v>41451</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2964,13 +2970,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>41465</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2978,13 +2984,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
         <v>41479</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2992,13 +2998,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
         <v>41493</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3006,16 +3012,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>41507</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3023,13 +3029,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>41521</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3037,13 +3043,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
         <v>41535</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3051,13 +3057,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <v>41536</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3065,13 +3071,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1">
         <v>41549</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3079,16 +3085,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1">
         <v>41563</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3096,16 +3102,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>41577</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3113,13 +3119,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
         <v>41591</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3127,13 +3133,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
         <v>41605</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3141,16 +3147,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
         <v>41619</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3158,16 +3164,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1">
         <v>41634</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3175,13 +3181,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1">
         <v>41648</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3189,13 +3195,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1">
         <v>41662</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3203,16 +3209,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1">
         <v>41680</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3220,16 +3226,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1">
         <v>41689</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3237,13 +3243,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" s="1">
         <v>41703</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3251,16 +3257,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1">
         <v>41717</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3268,13 +3274,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1">
         <v>41731</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3282,16 +3288,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1">
         <v>41745</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3299,16 +3305,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1">
         <v>41759</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3316,16 +3322,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" s="1">
         <v>41773</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3333,16 +3339,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="1">
         <v>41787</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3350,13 +3356,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1">
         <v>41801</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3364,13 +3370,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1">
         <v>41815</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3378,16 +3384,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1">
         <v>41829</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3395,16 +3401,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1">
         <v>41843</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3412,16 +3418,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1">
         <v>41857</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3429,13 +3435,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" s="1">
         <v>41871</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3443,16 +3449,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="1">
         <v>41885</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3460,13 +3466,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C53" s="1">
         <v>41899</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3474,16 +3480,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C54" s="1">
         <v>41913</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3491,13 +3497,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1">
         <v>41927</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3505,16 +3511,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C56" s="1">
         <v>41941</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3522,16 +3528,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="1">
         <v>41955</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3539,13 +3545,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" s="1">
         <v>41969</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3553,13 +3559,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C59" s="1">
         <v>41983</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3567,13 +3573,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60" s="1">
         <v>41967</v>
       </c>
       <c r="E60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3581,16 +3587,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61" s="1">
         <v>42011</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3598,13 +3604,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62" s="1">
         <v>42025</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3612,16 +3618,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C63" s="1">
         <v>42039</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3629,16 +3635,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C64" s="1">
         <v>42053</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3646,16 +3652,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C65" s="1">
         <v>42067</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3663,13 +3669,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C66" s="1">
         <v>42081</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3677,16 +3683,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C67" s="1">
         <v>42095</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3694,16 +3700,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C68" s="1">
         <v>42109</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3711,13 +3717,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C69" s="1">
         <v>42123</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3725,13 +3731,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C70" s="1">
         <v>42137</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3739,13 +3745,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C71" s="1">
         <v>42151</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3753,16 +3759,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C72" s="1">
         <v>42165</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3770,13 +3776,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C73" s="1">
         <v>42179</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3784,16 +3790,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C74" s="1">
         <v>42193</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3801,16 +3807,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1">
         <v>42207</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3818,16 +3824,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C76" s="1">
         <v>42221</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3835,13 +3841,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C77" s="1">
         <v>42235</v>
       </c>
       <c r="E77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3849,16 +3855,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C78" s="1">
         <v>42249</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3866,16 +3872,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C79" s="1">
         <v>42263</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3883,16 +3889,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C80" s="1">
         <v>42277</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3900,16 +3906,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C81" s="1">
         <v>42291</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3917,16 +3923,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C82" s="1">
         <v>42305</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3934,16 +3940,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C83" s="1">
         <v>42319</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3951,16 +3957,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C84" s="1">
         <v>42333</v>
       </c>
       <c r="D84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3968,13 +3974,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C85" s="1">
         <v>42347</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3982,16 +3988,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C86" s="1">
         <v>42361</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3999,16 +4005,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C87" s="1">
         <v>42375</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4016,16 +4022,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C88" s="1">
         <v>42389</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E88" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4033,16 +4039,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" s="1">
         <v>42403</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4050,16 +4056,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C90" s="1">
         <v>42417</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4067,16 +4073,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C91" s="1">
         <v>42432</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4084,13 +4090,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C92" s="1">
         <v>42445</v>
       </c>
       <c r="E92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4098,13 +4104,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C93" s="1">
         <v>42459</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4112,16 +4118,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C94" s="1">
         <v>42473</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4137,13 +4143,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C96" s="1">
         <v>42501</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4151,16 +4157,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C97" s="1">
         <v>42515</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4168,16 +4174,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C98" s="1">
         <v>42529</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4185,16 +4191,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C99" s="1">
         <v>42543</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4202,16 +4208,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C100" s="1">
         <v>42557</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4219,16 +4225,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C101" s="1">
         <v>42571</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4236,16 +4242,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C102" s="1">
         <v>42585</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E102" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4253,16 +4259,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C103" s="1">
         <v>42599</v>
       </c>
       <c r="D103" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4270,16 +4276,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C104" s="1">
         <v>42613</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4287,13 +4293,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C105" s="1">
         <v>42627</v>
       </c>
       <c r="E105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4301,16 +4307,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C106" s="1">
         <v>42641</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E106" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4318,16 +4324,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C107" s="1">
         <v>42655</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4335,13 +4341,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C108" s="1">
         <v>42669</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4349,16 +4355,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C109" s="1">
         <v>42683</v>
       </c>
       <c r="D109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4366,13 +4372,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C110" s="1">
         <v>42697</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4380,16 +4386,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C111" s="1">
         <v>42711</v>
       </c>
       <c r="D111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4397,13 +4403,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C112" s="1">
         <v>42725</v>
       </c>
       <c r="E112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4411,16 +4417,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C113" s="1">
         <v>42739</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E113" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4428,16 +4434,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C114" s="1">
         <v>42753</v>
       </c>
       <c r="D114" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E114" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4445,13 +4451,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C115" s="1">
         <v>42767</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4459,16 +4465,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C116" s="1">
         <v>42781</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E116" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4476,13 +4482,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C117" s="1">
         <v>42795</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4490,13 +4496,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C118" s="1">
         <v>42809</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4504,16 +4510,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C119" s="1">
         <v>42823</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E119" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4521,16 +4527,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C120" s="1">
         <v>42837</v>
       </c>
       <c r="D120" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E120" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4538,16 +4544,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C121" s="1">
         <v>42851</v>
       </c>
       <c r="D121" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E121" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4555,16 +4561,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C122" s="1">
         <v>42865</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E122" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4572,16 +4578,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C123" s="1">
         <v>42879</v>
       </c>
       <c r="D123" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4589,13 +4595,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C124" s="1">
         <v>42893</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4603,16 +4609,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C125" s="1">
         <v>42907</v>
       </c>
       <c r="D125" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E125" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4620,16 +4626,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C126" s="1">
         <v>42921</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4637,16 +4643,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C127" s="1">
         <v>42935</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E127" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4654,16 +4660,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C128" s="1">
         <v>42949</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E128" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4671,16 +4677,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C129" s="1">
         <v>42963</v>
       </c>
       <c r="D129" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4688,16 +4694,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C130" s="1">
         <v>42977</v>
       </c>
       <c r="D130" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4705,16 +4711,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C131" s="1">
         <v>42991</v>
       </c>
       <c r="D131" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E131" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4722,16 +4728,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C132" s="1">
         <v>43005</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E132" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4739,16 +4745,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C133" s="1">
         <v>43019</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4756,16 +4762,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C134" s="1">
         <v>43033</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E134" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4773,16 +4779,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C135" s="1">
         <v>43047</v>
       </c>
       <c r="D135" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4790,16 +4796,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C136" s="1">
         <v>43061</v>
       </c>
       <c r="D136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E136" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4807,16 +4813,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C137" s="1">
         <v>43075</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4824,13 +4830,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C138" s="1">
         <v>43089</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4838,16 +4844,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C139" s="1">
         <v>43103</v>
       </c>
       <c r="D139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E139" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4855,16 +4861,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C140" s="1">
         <v>43117</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E140" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4872,16 +4878,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C141" s="1">
         <v>43131</v>
       </c>
       <c r="D141" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E141" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4889,16 +4895,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C142" s="1">
         <v>43145</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E142" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4906,16 +4912,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C143" s="1">
         <v>43159</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4923,16 +4929,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C144" s="1">
         <v>43173</v>
       </c>
       <c r="D144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E144" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4940,16 +4946,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C145" s="1">
         <v>43187</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E145" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4957,16 +4963,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C146" s="1">
         <v>43201</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E146" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4974,13 +4980,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C147" s="1">
         <v>43214</v>
       </c>
       <c r="E147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4988,16 +4994,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C148" s="1">
         <v>43229</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E148" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5005,16 +5011,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C149" s="1">
         <v>43243</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E149" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5022,16 +5028,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C150" s="1">
         <v>43257</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E150" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5039,13 +5045,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C151" s="1">
         <v>43271</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5053,16 +5059,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C152" s="1">
         <v>43285</v>
       </c>
       <c r="D152" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E152" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5070,13 +5076,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C153" s="1">
         <v>43299</v>
       </c>
       <c r="E153" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5084,16 +5090,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C154" s="1">
         <v>43314</v>
       </c>
       <c r="D154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E154" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5101,16 +5107,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C155" s="1">
         <v>43327</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5118,16 +5124,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C156" s="1">
         <v>43341</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E156" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5135,16 +5141,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C157" s="1">
         <v>43355</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E157" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5152,16 +5158,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C158" s="1">
         <v>43369</v>
       </c>
       <c r="D158" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E158" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5169,16 +5175,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C159" s="1">
         <v>43383</v>
       </c>
       <c r="D159" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5186,16 +5192,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C160" s="1">
         <v>43397</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E160" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5203,13 +5209,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C161" s="1">
         <v>43411</v>
       </c>
       <c r="E161" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5217,16 +5223,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C162" s="1">
         <v>43426</v>
       </c>
       <c r="D162" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E162" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5234,16 +5240,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C163" s="1">
         <v>43439</v>
       </c>
       <c r="D163" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5251,13 +5257,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C164" s="1">
         <v>43453</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5265,16 +5271,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C165" s="1">
         <v>43467</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E165" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5282,16 +5288,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C166" s="1">
         <v>43481</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E166" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5299,16 +5305,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C167" s="1">
         <v>43495</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E167" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5316,16 +5322,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C168" s="1">
         <v>43509</v>
       </c>
       <c r="D168" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5333,16 +5339,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C169" s="1">
         <v>43523</v>
       </c>
       <c r="D169" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5350,16 +5356,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C170" s="1">
         <v>43537</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E170" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5367,16 +5373,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C171" s="1">
         <v>43551</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E171" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5384,16 +5390,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C172" s="1">
         <v>43565</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E172" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5401,16 +5407,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C173" s="1">
         <v>43579</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5418,16 +5424,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C174" s="1">
         <v>43593</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E174" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5435,16 +5441,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C175" s="1">
         <v>43607</v>
       </c>
       <c r="D175" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5452,16 +5458,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C176" s="1">
         <v>43621</v>
       </c>
       <c r="D176" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5469,16 +5475,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C177" s="1">
         <v>43635</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E177" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5486,16 +5492,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C178" s="1">
         <v>43649</v>
       </c>
       <c r="D178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5503,13 +5509,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C179" s="1">
         <v>43663</v>
       </c>
       <c r="E179" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5517,13 +5523,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C180" s="1">
         <v>43677</v>
       </c>
       <c r="E180" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5531,16 +5537,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C181" s="1">
         <v>43691</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5548,16 +5554,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C182" s="1">
         <v>43705</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E182" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5565,16 +5571,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C183" s="1">
         <v>43719</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E183" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5582,16 +5588,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C184" s="1">
         <v>43733</v>
       </c>
       <c r="D184" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5599,13 +5605,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C185" s="1">
         <v>43747</v>
       </c>
       <c r="E185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5613,16 +5619,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C186" s="1">
         <v>43761</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E186" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5630,16 +5636,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C187" s="1">
         <v>43775</v>
       </c>
       <c r="D187" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5647,13 +5653,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C188" s="1">
         <v>43789</v>
       </c>
       <c r="E188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5661,16 +5667,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C189" s="1">
         <v>43804</v>
       </c>
       <c r="D189" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E189" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5678,16 +5684,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C190" s="1">
         <v>43817</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E190" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5695,16 +5701,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C191" s="1">
         <v>43831</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5712,16 +5718,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C192" s="1">
         <v>43845</v>
       </c>
       <c r="D192" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E192" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5729,16 +5735,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C193" s="1">
         <v>43859</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5746,16 +5752,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C194" s="1">
         <v>43873</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5763,16 +5769,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C195" s="1">
         <v>43887</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5780,16 +5786,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C196" s="1">
         <v>43901</v>
       </c>
       <c r="D196" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E196" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5797,16 +5803,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C197" s="1">
         <v>43915</v>
       </c>
       <c r="D197" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E197" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5814,13 +5820,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C198" s="1">
         <v>43929</v>
       </c>
       <c r="E198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5828,16 +5834,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C199" s="1">
         <v>43943</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E199" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5845,13 +5851,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C200" s="1">
         <v>43957</v>
       </c>
       <c r="E200" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5859,13 +5865,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C201" s="1">
         <v>43971</v>
       </c>
       <c r="E201" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5873,16 +5879,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C202" s="1">
         <v>43985</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5890,16 +5896,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C203" s="1">
         <v>43999</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E203" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5907,16 +5913,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C204" s="1">
         <v>44014</v>
       </c>
       <c r="D204" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5924,13 +5930,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C205" s="1">
         <v>44027</v>
       </c>
       <c r="E205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5938,16 +5944,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C206" s="1">
         <v>44041</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E206" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5955,16 +5961,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C207" s="1">
         <v>44055</v>
       </c>
       <c r="D207" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E207" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5972,16 +5978,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C208" s="1">
         <v>44069</v>
       </c>
       <c r="D208" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E208" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5989,16 +5995,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C209" s="1">
         <v>44083</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E209" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6006,13 +6012,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C210" s="1">
         <v>44097</v>
       </c>
       <c r="E210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6020,16 +6026,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C211" s="1">
         <v>44111</v>
       </c>
       <c r="D211" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E211" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6037,13 +6043,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C212" s="1">
         <v>44125</v>
       </c>
       <c r="E212" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6051,16 +6057,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C213" s="1">
         <v>44139</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E213" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6068,16 +6074,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C214" s="1">
         <v>44153</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E214" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6085,16 +6091,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C215" s="1">
         <v>44167</v>
       </c>
       <c r="D215" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E215" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6102,13 +6108,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C216" s="1">
         <v>44181</v>
       </c>
       <c r="E216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6116,13 +6122,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C217" s="1">
         <v>44195</v>
       </c>
       <c r="E217" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6130,16 +6136,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C218" s="1">
         <v>44209</v>
       </c>
       <c r="D218" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E218" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6147,16 +6153,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C219" s="1">
         <v>44223</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E219" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6164,16 +6170,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C220" s="1">
         <v>44237</v>
       </c>
       <c r="D220" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E220" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6181,13 +6187,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C221" s="1">
         <v>44251</v>
       </c>
       <c r="E221" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6195,16 +6201,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C222" s="1">
         <v>44265</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E222" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6212,16 +6218,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C223" s="1">
         <v>44279</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E223" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6229,16 +6235,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C224" s="1">
         <v>44293</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E224" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6246,16 +6252,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C225" s="1">
         <v>44321</v>
       </c>
       <c r="D225" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E225" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6263,13 +6269,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C226" s="1">
         <v>44335</v>
       </c>
       <c r="E226" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6277,16 +6283,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C227" s="1">
         <v>44349</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E227" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6294,13 +6300,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C228" s="1">
         <v>44363</v>
       </c>
       <c r="E228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6308,13 +6314,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C229" s="1">
         <v>44377</v>
       </c>
       <c r="E229" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6322,13 +6328,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C230" s="1">
         <v>44391</v>
       </c>
       <c r="E230" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6336,16 +6342,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C231" s="1">
         <v>44405</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E231" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6353,16 +6359,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C232" s="1">
         <v>44419</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E232" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6370,16 +6376,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C233" s="1">
         <v>44433</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E233" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6387,13 +6393,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C234" s="1">
         <v>44447</v>
       </c>
       <c r="E234" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6401,13 +6407,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C235" s="1">
         <v>44461</v>
       </c>
       <c r="E235" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6415,13 +6421,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C236" s="1">
         <v>44475</v>
       </c>
       <c r="E236" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6429,13 +6435,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C237" s="1">
         <v>44489</v>
       </c>
       <c r="E237" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6443,16 +6449,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C238" s="1">
         <v>44503</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E238" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6460,13 +6466,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C239" s="1">
         <v>44517</v>
       </c>
       <c r="E239" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6474,16 +6480,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C240" s="1">
         <v>44531</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6491,16 +6497,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C241" s="1">
         <v>44545</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E241" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6508,16 +6514,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C242" s="1">
         <v>44559</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6525,13 +6531,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C243" s="1">
         <v>44573</v>
       </c>
       <c r="E243" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6539,16 +6545,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C244" s="1">
         <v>44587</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E244" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6556,16 +6562,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C245" s="1">
         <v>44601</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E245" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6573,13 +6579,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C246" s="1">
         <v>44615</v>
       </c>
       <c r="E246" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6587,13 +6593,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C247" s="1">
         <v>44629</v>
       </c>
       <c r="E247" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6601,13 +6607,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C248" s="1">
         <v>44643</v>
       </c>
       <c r="E248" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6615,13 +6621,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C249" s="1">
         <v>44657</v>
       </c>
       <c r="E249" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6629,13 +6635,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C250" s="1">
         <v>44671</v>
       </c>
       <c r="E250" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6643,16 +6649,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C251" s="1">
         <v>44685</v>
       </c>
       <c r="D251" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E251" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6660,16 +6666,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C252" s="1">
         <v>44699</v>
       </c>
       <c r="D252" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E252" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6677,13 +6683,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C253" s="1">
         <v>44713</v>
       </c>
       <c r="E253" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6691,16 +6697,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C254" s="1">
         <v>44727</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E254" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6708,16 +6714,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C255" s="1">
         <v>44741</v>
       </c>
       <c r="D255" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E255" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6725,13 +6731,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C256" s="1">
         <v>44755</v>
       </c>
       <c r="E256" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6739,13 +6745,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C257" s="1">
         <v>44769</v>
       </c>
       <c r="E257" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6753,13 +6759,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C258" s="1">
         <v>44783</v>
       </c>
       <c r="E258" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6767,13 +6773,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C259" s="1">
         <v>44797</v>
       </c>
       <c r="E259" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6781,16 +6787,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C260" s="1">
         <v>44811</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E260" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6798,13 +6804,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C261" s="1">
         <v>44825</v>
       </c>
       <c r="E261" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6812,13 +6818,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C262" s="1">
         <v>44839</v>
       </c>
       <c r="E262" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6826,16 +6832,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C263" s="1">
         <v>44853</v>
       </c>
       <c r="D263" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E263" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6843,16 +6849,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C264" s="1">
         <v>44867</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E264" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6860,13 +6866,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C265" s="1">
         <v>44881</v>
       </c>
       <c r="E265" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6874,16 +6880,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C266" s="1">
         <v>44895</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E266" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6891,16 +6897,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C267" s="1">
         <v>44909</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E267" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6908,16 +6914,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C268" s="1">
         <v>44923</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E268" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6925,16 +6931,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C269" s="1">
         <v>44937</v>
       </c>
       <c r="D269" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E269" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6942,16 +6948,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C270" s="1">
         <v>44951</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E270" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6959,13 +6965,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C271" s="1">
         <v>44965</v>
       </c>
       <c r="E271" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6973,13 +6979,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C272" s="1">
         <v>44979</v>
       </c>
       <c r="E272" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6987,16 +6993,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C273" s="1">
         <v>44993</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E273" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7004,13 +7010,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C274" s="1">
         <v>45007</v>
       </c>
       <c r="E274" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7018,16 +7024,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C275" s="1">
         <v>45021</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E275" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7035,13 +7041,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C276" s="1">
         <v>45052</v>
       </c>
       <c r="E276" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7049,13 +7055,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C277" s="1">
         <v>45066</v>
       </c>
       <c r="E277" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7063,13 +7069,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C278" s="1">
         <v>45080</v>
       </c>
       <c r="E278" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7077,13 +7083,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C279" s="1">
         <v>45094</v>
       </c>
       <c r="E279" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7091,16 +7097,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C280" s="1">
         <v>45108</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E280" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7108,13 +7114,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C281" s="1">
         <v>45122</v>
       </c>
       <c r="E281" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7122,16 +7128,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C282" s="1">
         <v>45136</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E282" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7139,16 +7145,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C283" s="1">
         <v>45150</v>
       </c>
       <c r="D283" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E283" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7156,13 +7162,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C284" s="1">
         <v>45164</v>
       </c>
       <c r="E284" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7170,16 +7176,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C285" s="1">
         <v>45178</v>
       </c>
       <c r="D285" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E285" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7187,13 +7193,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C286" s="1">
         <v>45192</v>
       </c>
       <c r="E286" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7201,13 +7207,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C287" s="1">
         <v>45206</v>
       </c>
       <c r="E287" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7215,16 +7221,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C288" s="1">
         <v>45220</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E288" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7232,16 +7238,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C289" s="1">
         <v>45234</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E289" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7249,16 +7255,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C290" s="1">
         <v>45248</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E290" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7266,13 +7272,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C291" s="1">
         <v>45262</v>
       </c>
       <c r="E291" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7280,13 +7286,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C292" s="1">
         <v>45276</v>
       </c>
       <c r="E292" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7294,13 +7300,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C293" s="1">
         <v>45290</v>
       </c>
       <c r="E293" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7308,16 +7314,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C294" s="1">
         <v>45304</v>
       </c>
       <c r="D294" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E294" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7325,13 +7331,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C295" s="1">
         <v>45318</v>
       </c>
       <c r="E295" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7339,13 +7345,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C296" s="1">
         <v>45332</v>
       </c>
       <c r="E296" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7353,16 +7359,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C297" s="1">
         <v>45346</v>
       </c>
       <c r="D297" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E297" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7370,13 +7376,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C298" s="1">
         <v>45360</v>
       </c>
       <c r="E298" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7384,13 +7390,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C299" s="1">
         <v>45374</v>
       </c>
       <c r="E299" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7398,13 +7404,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C300" s="1">
         <v>45388</v>
       </c>
       <c r="E300" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7412,13 +7418,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C301" s="1">
         <v>45402</v>
       </c>
       <c r="E301" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="506">
   <si>
     <t>Nº</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>malakai</t>
-  </si>
-  <si>
-    <t>Iphone</t>
   </si>
   <si>
     <t>magic matt</t>
@@ -2803,9 +2800,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7"/>
       <c r="C7" s="1">
         <v>41269</v>
       </c>
@@ -2815,13 +2810,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>41283</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2829,16 +2824,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>41297</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2862,13 +2857,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>41339</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2876,13 +2871,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>41353</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2906,7 +2901,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>41396</v>
@@ -2925,13 +2920,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>41423</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2939,16 +2934,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>41437</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
         <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2956,13 +2951,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>41451</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2970,13 +2965,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <v>41465</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2984,13 +2979,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>41479</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2998,13 +2993,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <v>41493</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3012,16 +3007,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
         <v>41507</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3029,13 +3024,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
         <v>41521</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3043,13 +3038,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
         <v>41535</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3057,13 +3052,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
         <v>41536</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3071,13 +3066,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
         <v>41549</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3085,16 +3080,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
         <v>41563</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3102,16 +3097,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1">
         <v>41577</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3119,13 +3114,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1">
         <v>41591</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3133,13 +3128,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1">
         <v>41605</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3147,16 +3142,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1">
         <v>41619</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
         <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3164,16 +3159,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1">
         <v>41634</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3181,13 +3176,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1">
         <v>41648</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3195,13 +3190,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1">
         <v>41662</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3209,16 +3204,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1">
         <v>41680</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3226,16 +3221,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1">
         <v>41689</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3243,13 +3238,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1">
         <v>41703</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3257,16 +3252,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="1">
         <v>41717</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3274,13 +3269,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1">
         <v>41731</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3288,16 +3283,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1">
         <v>41745</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3305,16 +3300,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1">
         <v>41759</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3322,16 +3317,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1">
         <v>41773</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3339,16 +3334,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="1">
         <v>41787</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3356,13 +3351,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="1">
         <v>41801</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3370,13 +3365,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1">
         <v>41815</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3384,16 +3379,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1">
         <v>41829</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3401,16 +3396,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="1">
         <v>41843</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3418,16 +3413,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="1">
         <v>41857</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3435,13 +3430,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1">
         <v>41871</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3449,16 +3444,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1">
         <v>41885</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3466,13 +3461,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1">
         <v>41899</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3480,16 +3475,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1">
         <v>41913</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" t="s">
         <v>81</v>
-      </c>
-      <c r="E54" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3497,13 +3492,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1">
         <v>41927</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3511,16 +3506,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1">
         <v>41941</v>
       </c>
       <c r="D56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s">
         <v>85</v>
-      </c>
-      <c r="E56" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3528,16 +3523,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1">
         <v>41955</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3545,13 +3540,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="1">
         <v>41969</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3559,13 +3554,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="1">
         <v>41983</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3573,13 +3568,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="1">
         <v>41967</v>
       </c>
       <c r="E60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3587,16 +3582,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1">
         <v>42011</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3604,13 +3599,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C62" s="1">
         <v>42025</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3618,16 +3613,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" s="1">
         <v>42039</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3635,16 +3630,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" s="1">
         <v>42053</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3652,16 +3647,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1">
         <v>42067</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3669,13 +3664,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" s="1">
         <v>42081</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3683,16 +3678,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" s="1">
         <v>42095</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3700,16 +3695,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1">
         <v>42109</v>
       </c>
       <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
         <v>107</v>
-      </c>
-      <c r="E68" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3717,13 +3712,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C69" s="1">
         <v>42123</v>
       </c>
       <c r="E69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3731,13 +3726,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="1">
         <v>42137</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3745,13 +3740,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C71" s="1">
         <v>42151</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3759,16 +3754,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72" s="1">
         <v>42165</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" t="s">
         <v>113</v>
-      </c>
-      <c r="E72" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3776,13 +3771,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C73" s="1">
         <v>42179</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3790,16 +3785,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" s="1">
         <v>42193</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3807,16 +3802,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C75" s="1">
         <v>42207</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3824,16 +3819,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C76" s="1">
         <v>42221</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3841,13 +3836,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C77" s="1">
         <v>42235</v>
       </c>
       <c r="E77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3855,16 +3850,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C78" s="1">
         <v>42249</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3872,16 +3867,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C79" s="1">
         <v>42263</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3889,16 +3884,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C80" s="1">
         <v>42277</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3906,16 +3901,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" s="1">
         <v>42291</v>
       </c>
       <c r="D81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" t="s">
         <v>130</v>
-      </c>
-      <c r="E81" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3923,16 +3918,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" s="1">
         <v>42305</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3940,16 +3935,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C83" s="1">
         <v>42319</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3957,16 +3952,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C84" s="1">
         <v>42333</v>
       </c>
       <c r="D84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3974,13 +3969,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" s="1">
         <v>42347</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3988,16 +3983,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" s="1">
         <v>42361</v>
       </c>
       <c r="D86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4005,16 +4000,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="1">
         <v>42375</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4022,16 +4017,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C88" s="1">
         <v>42389</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4039,16 +4034,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" s="1">
         <v>42403</v>
       </c>
       <c r="D89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4056,16 +4051,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C90" s="1">
         <v>42417</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4073,16 +4068,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="1">
         <v>42432</v>
       </c>
       <c r="D91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4090,13 +4085,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C92" s="1">
         <v>42445</v>
       </c>
       <c r="E92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4104,13 +4099,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C93" s="1">
         <v>42459</v>
       </c>
       <c r="E93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4118,16 +4113,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C94" s="1">
         <v>42473</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4143,13 +4138,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C96" s="1">
         <v>42501</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4157,16 +4152,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C97" s="1">
         <v>42515</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4174,16 +4169,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C98" s="1">
         <v>42529</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4191,16 +4186,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C99" s="1">
         <v>42543</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4208,16 +4203,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C100" s="1">
         <v>42557</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4225,16 +4220,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C101" s="1">
         <v>42571</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4242,16 +4237,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C102" s="1">
         <v>42585</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4259,16 +4254,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C103" s="1">
         <v>42599</v>
       </c>
       <c r="D103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4276,16 +4271,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C104" s="1">
         <v>42613</v>
       </c>
       <c r="D104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4293,13 +4288,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C105" s="1">
         <v>42627</v>
       </c>
       <c r="E105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4307,16 +4302,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="1">
         <v>42641</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4324,16 +4319,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C107" s="1">
         <v>42655</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4341,13 +4336,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C108" s="1">
         <v>42669</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4355,16 +4350,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C109" s="1">
         <v>42683</v>
       </c>
       <c r="D109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4372,13 +4367,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C110" s="1">
         <v>42697</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4386,16 +4381,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C111" s="1">
         <v>42711</v>
       </c>
       <c r="D111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4403,13 +4398,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C112" s="1">
         <v>42725</v>
       </c>
       <c r="E112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4417,16 +4412,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C113" s="1">
         <v>42739</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4434,16 +4429,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C114" s="1">
         <v>42753</v>
       </c>
       <c r="D114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4451,13 +4446,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C115" s="1">
         <v>42767</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4465,16 +4460,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C116" s="1">
         <v>42781</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4482,13 +4477,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C117" s="1">
         <v>42795</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4496,13 +4491,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C118" s="1">
         <v>42809</v>
       </c>
       <c r="E118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4510,16 +4505,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C119" s="1">
         <v>42823</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4527,16 +4522,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C120" s="1">
         <v>42837</v>
       </c>
       <c r="D120" t="s">
+        <v>195</v>
+      </c>
+      <c r="E120" t="s">
         <v>196</v>
-      </c>
-      <c r="E120" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4544,16 +4539,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C121" s="1">
         <v>42851</v>
       </c>
       <c r="D121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4561,16 +4556,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C122" s="1">
         <v>42865</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4578,16 +4573,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C123" s="1">
         <v>42879</v>
       </c>
       <c r="D123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4595,13 +4590,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C124" s="1">
         <v>42893</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4609,16 +4604,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C125" s="1">
         <v>42907</v>
       </c>
       <c r="D125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4626,16 +4621,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C126" s="1">
         <v>42921</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4643,16 +4638,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C127" s="1">
         <v>42935</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4660,16 +4655,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C128" s="1">
         <v>42949</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4677,16 +4672,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C129" s="1">
         <v>42963</v>
       </c>
       <c r="D129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4694,16 +4689,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" s="1">
         <v>42977</v>
       </c>
       <c r="D130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4711,16 +4706,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C131" s="1">
         <v>42991</v>
       </c>
       <c r="D131" t="s">
+        <v>217</v>
+      </c>
+      <c r="E131" t="s">
         <v>218</v>
-      </c>
-      <c r="E131" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4728,16 +4723,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C132" s="1">
         <v>43005</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4745,16 +4740,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C133" s="1">
         <v>43019</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4762,16 +4757,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C134" s="1">
         <v>43033</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4779,16 +4774,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C135" s="1">
         <v>43047</v>
       </c>
       <c r="D135" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4796,16 +4791,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C136" s="1">
         <v>43061</v>
       </c>
       <c r="D136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4813,16 +4808,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C137" s="1">
         <v>43075</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4830,13 +4825,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C138" s="1">
         <v>43089</v>
       </c>
       <c r="E138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4844,16 +4839,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C139" s="1">
         <v>43103</v>
       </c>
       <c r="D139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4861,16 +4856,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C140" s="1">
         <v>43117</v>
       </c>
       <c r="D140" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E140" t="s">
         <v>236</v>
-      </c>
-      <c r="E140" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4878,16 +4873,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C141" s="1">
         <v>43131</v>
       </c>
       <c r="D141" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E141" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4895,16 +4890,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C142" s="1">
         <v>43145</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E142" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4912,16 +4907,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C143" s="1">
         <v>43159</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4929,16 +4924,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C144" s="1">
         <v>43173</v>
       </c>
       <c r="D144" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E144" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4946,16 +4941,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C145" s="1">
         <v>43187</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E145" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4963,16 +4958,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C146" s="1">
         <v>43201</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E146" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4980,13 +4975,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C147" s="1">
         <v>43214</v>
       </c>
       <c r="E147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4994,16 +4989,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C148" s="1">
         <v>43229</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E148" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5011,16 +5006,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C149" s="1">
         <v>43243</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E149" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5028,16 +5023,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C150" s="1">
         <v>43257</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E150" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5045,13 +5040,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C151" s="1">
         <v>43271</v>
       </c>
       <c r="E151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5059,16 +5054,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C152" s="1">
         <v>43285</v>
       </c>
       <c r="D152" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5076,13 +5071,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C153" s="1">
         <v>43299</v>
       </c>
       <c r="E153" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5090,16 +5085,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C154" s="1">
         <v>43314</v>
       </c>
       <c r="D154" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E154" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5107,16 +5102,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C155" s="1">
         <v>43327</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5124,16 +5119,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C156" s="1">
         <v>43341</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E156" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5141,16 +5136,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C157" s="1">
         <v>43355</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5158,16 +5153,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C158" s="1">
         <v>43369</v>
       </c>
       <c r="D158" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E158" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5175,16 +5170,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C159" s="1">
         <v>43383</v>
       </c>
       <c r="D159" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5192,16 +5187,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C160" s="1">
         <v>43397</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E160" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5209,13 +5204,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C161" s="1">
         <v>43411</v>
       </c>
       <c r="E161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5223,16 +5218,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C162" s="1">
         <v>43426</v>
       </c>
       <c r="D162" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5240,16 +5235,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C163" s="1">
         <v>43439</v>
       </c>
       <c r="D163" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5257,13 +5252,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C164" s="1">
         <v>43453</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5271,16 +5266,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C165" s="1">
         <v>43467</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E165" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5288,16 +5283,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C166" s="1">
         <v>43481</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E166" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5305,16 +5300,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C167" s="1">
         <v>43495</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E167" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5322,16 +5317,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C168" s="1">
         <v>43509</v>
       </c>
       <c r="D168" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5339,16 +5334,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C169" s="1">
         <v>43523</v>
       </c>
       <c r="D169" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5356,16 +5351,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C170" s="1">
         <v>43537</v>
       </c>
       <c r="D170" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E170" t="s">
         <v>292</v>
-      </c>
-      <c r="E170" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5373,16 +5368,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C171" s="1">
         <v>43551</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E171" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5390,16 +5385,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C172" s="1">
         <v>43565</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E172" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5407,16 +5402,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C173" s="1">
         <v>43579</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5424,16 +5419,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C174" s="1">
         <v>43593</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E174" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5441,16 +5436,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C175" s="1">
         <v>43607</v>
       </c>
       <c r="D175" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5458,16 +5453,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C176" s="1">
         <v>43621</v>
       </c>
       <c r="D176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5475,16 +5470,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C177" s="1">
         <v>43635</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E177" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5492,16 +5487,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C178" s="1">
         <v>43649</v>
       </c>
       <c r="D178" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5509,13 +5504,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C179" s="1">
         <v>43663</v>
       </c>
       <c r="E179" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5523,13 +5518,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C180" s="1">
         <v>43677</v>
       </c>
       <c r="E180" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5537,16 +5532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C181" s="1">
         <v>43691</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5554,16 +5549,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C182" s="1">
         <v>43705</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E182" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5571,16 +5566,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C183" s="1">
         <v>43719</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E183" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5588,16 +5583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C184" s="1">
         <v>43733</v>
       </c>
       <c r="D184" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5605,13 +5600,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C185" s="1">
         <v>43747</v>
       </c>
       <c r="E185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5619,16 +5614,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C186" s="1">
         <v>43761</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E186" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5636,16 +5631,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C187" s="1">
         <v>43775</v>
       </c>
       <c r="D187" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5653,13 +5648,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C188" s="1">
         <v>43789</v>
       </c>
       <c r="E188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5667,16 +5662,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C189" s="1">
         <v>43804</v>
       </c>
       <c r="D189" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5684,16 +5679,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C190" s="1">
         <v>43817</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5701,16 +5696,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C191" s="1">
         <v>43831</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5718,16 +5713,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C192" s="1">
         <v>43845</v>
       </c>
       <c r="D192" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E192" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5735,16 +5730,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C193" s="1">
         <v>43859</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5752,16 +5747,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C194" s="1">
         <v>43873</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5769,16 +5764,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C195" s="1">
         <v>43887</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E195" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5786,16 +5781,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C196" s="1">
         <v>43901</v>
       </c>
       <c r="D196" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5803,16 +5798,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C197" s="1">
         <v>43915</v>
       </c>
       <c r="D197" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E197" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5820,13 +5815,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C198" s="1">
         <v>43929</v>
       </c>
       <c r="E198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5834,16 +5829,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C199" s="1">
         <v>43943</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5851,13 +5846,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C200" s="1">
         <v>43957</v>
       </c>
       <c r="E200" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5865,13 +5860,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C201" s="1">
         <v>43971</v>
       </c>
       <c r="E201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5879,16 +5874,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C202" s="1">
         <v>43985</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5896,16 +5891,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C203" s="1">
         <v>43999</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E203" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5913,16 +5908,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C204" s="1">
         <v>44014</v>
       </c>
       <c r="D204" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5930,13 +5925,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C205" s="1">
         <v>44027</v>
       </c>
       <c r="E205" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5944,16 +5939,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C206" s="1">
         <v>44041</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5961,16 +5956,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C207" s="1">
         <v>44055</v>
       </c>
       <c r="D207" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E207" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5978,16 +5973,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C208" s="1">
         <v>44069</v>
       </c>
       <c r="D208" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5995,16 +5990,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C209" s="1">
         <v>44083</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E209" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6012,13 +6007,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C210" s="1">
         <v>44097</v>
       </c>
       <c r="E210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6026,16 +6021,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C211" s="1">
         <v>44111</v>
       </c>
       <c r="D211" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6043,13 +6038,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C212" s="1">
         <v>44125</v>
       </c>
       <c r="E212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6057,16 +6052,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C213" s="1">
         <v>44139</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E213" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6074,16 +6069,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C214" s="1">
         <v>44153</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E214" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6091,16 +6086,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C215" s="1">
         <v>44167</v>
       </c>
       <c r="D215" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6108,13 +6103,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C216" s="1">
         <v>44181</v>
       </c>
       <c r="E216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6122,13 +6117,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C217" s="1">
         <v>44195</v>
       </c>
       <c r="E217" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6136,16 +6131,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C218" s="1">
         <v>44209</v>
       </c>
       <c r="D218" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6153,16 +6148,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C219" s="1">
         <v>44223</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E219" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6170,16 +6165,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C220" s="1">
         <v>44237</v>
       </c>
       <c r="D220" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E220" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6187,13 +6182,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C221" s="1">
         <v>44251</v>
       </c>
       <c r="E221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6201,16 +6196,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C222" s="1">
         <v>44265</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E222" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6218,16 +6213,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C223" s="1">
         <v>44279</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E223" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6235,16 +6230,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C224" s="1">
         <v>44293</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E224" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6252,16 +6247,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C225" s="1">
         <v>44321</v>
       </c>
       <c r="D225" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E225" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6269,13 +6264,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C226" s="1">
         <v>44335</v>
       </c>
       <c r="E226" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6283,16 +6278,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C227" s="1">
         <v>44349</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6300,13 +6295,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C228" s="1">
         <v>44363</v>
       </c>
       <c r="E228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6314,13 +6309,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C229" s="1">
         <v>44377</v>
       </c>
       <c r="E229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6328,13 +6323,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C230" s="1">
         <v>44391</v>
       </c>
       <c r="E230" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6342,16 +6337,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C231" s="1">
         <v>44405</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6359,16 +6354,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C232" s="1">
         <v>44419</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E232" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6376,16 +6371,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C233" s="1">
         <v>44433</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6393,13 +6388,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C234" s="1">
         <v>44447</v>
       </c>
       <c r="E234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6407,13 +6402,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C235" s="1">
         <v>44461</v>
       </c>
       <c r="E235" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6421,13 +6416,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C236" s="1">
         <v>44475</v>
       </c>
       <c r="E236" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6435,13 +6430,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C237" s="1">
         <v>44489</v>
       </c>
       <c r="E237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6449,16 +6444,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C238" s="1">
         <v>44503</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E238" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6466,13 +6461,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C239" s="1">
         <v>44517</v>
       </c>
       <c r="E239" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6480,16 +6475,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C240" s="1">
         <v>44531</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6497,16 +6492,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C241" s="1">
         <v>44545</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E241" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6514,16 +6509,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C242" s="1">
         <v>44559</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E242" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6531,13 +6526,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C243" s="1">
         <v>44573</v>
       </c>
       <c r="E243" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6545,16 +6540,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C244" s="1">
         <v>44587</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6562,16 +6557,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C245" s="1">
         <v>44601</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E245" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6579,13 +6574,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C246" s="1">
         <v>44615</v>
       </c>
       <c r="E246" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6593,13 +6588,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C247" s="1">
         <v>44629</v>
       </c>
       <c r="E247" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6607,13 +6602,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C248" s="1">
         <v>44643</v>
       </c>
       <c r="E248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6621,13 +6616,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C249" s="1">
         <v>44657</v>
       </c>
       <c r="E249" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6635,13 +6630,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C250" s="1">
         <v>44671</v>
       </c>
       <c r="E250" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6649,16 +6644,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C251" s="1">
         <v>44685</v>
       </c>
       <c r="D251" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E251" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6666,16 +6661,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C252" s="1">
         <v>44699</v>
       </c>
       <c r="D252" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E252" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6683,13 +6678,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C253" s="1">
         <v>44713</v>
       </c>
       <c r="E253" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6697,16 +6692,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C254" s="1">
         <v>44727</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E254" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6714,16 +6709,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C255" s="1">
         <v>44741</v>
       </c>
       <c r="D255" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E255" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6731,13 +6726,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C256" s="1">
         <v>44755</v>
       </c>
       <c r="E256" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6745,13 +6740,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C257" s="1">
         <v>44769</v>
       </c>
       <c r="E257" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6759,13 +6754,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C258" s="1">
         <v>44783</v>
       </c>
       <c r="E258" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6773,13 +6768,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C259" s="1">
         <v>44797</v>
       </c>
       <c r="E259" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6787,16 +6782,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C260" s="1">
         <v>44811</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E260" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6804,13 +6799,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C261" s="1">
         <v>44825</v>
       </c>
       <c r="E261" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6818,13 +6813,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C262" s="1">
         <v>44839</v>
       </c>
       <c r="E262" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6832,16 +6827,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C263" s="1">
         <v>44853</v>
       </c>
       <c r="D263" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E263" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6849,16 +6844,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C264" s="1">
         <v>44867</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E264" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6866,13 +6861,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C265" s="1">
         <v>44881</v>
       </c>
       <c r="E265" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6880,16 +6875,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C266" s="1">
         <v>44895</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E266" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6897,16 +6892,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C267" s="1">
         <v>44909</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E267" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6914,16 +6909,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C268" s="1">
         <v>44923</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E268" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6931,16 +6926,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C269" s="1">
         <v>44937</v>
       </c>
       <c r="D269" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E269" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6948,16 +6943,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C270" s="1">
         <v>44951</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E270" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6965,13 +6960,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C271" s="1">
         <v>44965</v>
       </c>
       <c r="E271" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6979,13 +6974,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C272" s="1">
         <v>44979</v>
       </c>
       <c r="E272" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6993,16 +6988,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C273" s="1">
         <v>44993</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E273" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7010,13 +7005,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C274" s="1">
         <v>45007</v>
       </c>
       <c r="E274" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7024,16 +7019,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C275" s="1">
         <v>45021</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E275" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7041,13 +7036,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C276" s="1">
         <v>45052</v>
       </c>
       <c r="E276" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7055,13 +7050,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C277" s="1">
         <v>45066</v>
       </c>
       <c r="E277" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7069,13 +7064,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C278" s="1">
         <v>45080</v>
       </c>
       <c r="E278" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7083,13 +7078,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C279" s="1">
         <v>45094</v>
       </c>
       <c r="E279" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7097,16 +7092,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C280" s="1">
         <v>45108</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E280" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7114,13 +7109,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C281" s="1">
         <v>45122</v>
       </c>
       <c r="E281" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7128,16 +7123,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C282" s="1">
         <v>45136</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E282" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7145,16 +7140,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C283" s="1">
         <v>45150</v>
       </c>
       <c r="D283" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E283" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7162,13 +7157,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C284" s="1">
         <v>45164</v>
       </c>
       <c r="E284" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7176,16 +7171,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C285" s="1">
         <v>45178</v>
       </c>
       <c r="D285" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E285" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7193,13 +7188,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C286" s="1">
         <v>45192</v>
       </c>
       <c r="E286" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7207,13 +7202,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C287" s="1">
         <v>45206</v>
       </c>
       <c r="E287" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7221,16 +7216,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C288" s="1">
         <v>45220</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E288" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7238,16 +7233,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C289" s="1">
         <v>45234</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E289" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7255,16 +7250,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C290" s="1">
         <v>45248</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E290" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7272,13 +7267,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C291" s="1">
         <v>45262</v>
       </c>
       <c r="E291" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7286,13 +7281,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C292" s="1">
         <v>45276</v>
       </c>
       <c r="E292" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7300,13 +7295,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C293" s="1">
         <v>45290</v>
       </c>
       <c r="E293" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7314,16 +7309,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C294" s="1">
         <v>45304</v>
       </c>
       <c r="D294" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E294" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7331,13 +7326,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C295" s="1">
         <v>45318</v>
       </c>
       <c r="E295" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7345,13 +7340,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C296" s="1">
         <v>45332</v>
       </c>
       <c r="E296" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7359,16 +7354,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C297" s="1">
         <v>45346</v>
       </c>
       <c r="D297" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E297" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7376,13 +7371,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C298" s="1">
         <v>45360</v>
       </c>
       <c r="E298" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7390,13 +7385,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C299" s="1">
         <v>45374</v>
       </c>
       <c r="E299" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7404,13 +7399,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C300" s="1">
         <v>45388</v>
       </c>
       <c r="E300" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7418,13 +7413,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C301" s="1">
         <v>45402</v>
       </c>
       <c r="E301" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="507">
   <si>
     <t>Nº</t>
   </si>
@@ -1376,7 +1376,7 @@
     <t>Noctam</t>
   </si>
   <si>
-    <t>- d e v i t o -</t>
+    <t>- xT W i. -</t>
   </si>
   <si>
     <t>BalaXonG</t>
@@ -1545,6 +1545,9 @@
   </si>
   <si>
     <t>DRI DRI</t>
+  </si>
+  <si>
+    <t>Mineirovski</t>
   </si>
 </sst>
 </file>
@@ -2710,10 +2713,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2800,7 +2803,6 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7"/>
       <c r="C7" s="1">
         <v>41269</v>
       </c>
@@ -7420,6 +7422,20 @@
       </c>
       <c r="E301" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>506</v>
+      </c>
+      <c r="C302" s="1">
+        <v>45416</v>
+      </c>
+      <c r="E302" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -794,7 +794,7 @@
     <t>Mr Novack</t>
   </si>
   <si>
-    <t xml:space="preserve"> - II- StinGer -II -</t>
+    <t>- il- StinGer -li -</t>
   </si>
   <si>
     <t>_Fenrir_</t>
@@ -2715,8 +2715,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1073,7 +1073,7 @@
     <t>max.estripador</t>
   </si>
   <si>
-    <t>IX- ATOMIC -XI</t>
+    <t>lX- ATOMIC -Xl</t>
   </si>
   <si>
     <t>Baechu</t>
@@ -2715,8 +2715,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="508">
   <si>
     <t>Nº</t>
   </si>
@@ -1482,6 +1482,9 @@
   </si>
   <si>
     <t>- War Machine -</t>
+  </si>
+  <si>
+    <t>Gabriel_Wegikovski</t>
   </si>
   <si>
     <t>- M O D D E R X -</t>
@@ -2715,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -7195,6 +7198,9 @@
       <c r="C286" s="1">
         <v>45192</v>
       </c>
+      <c r="D286" t="s">
+        <v>485</v>
+      </c>
       <c r="E286" t="s">
         <v>113</v>
       </c>
@@ -7204,7 +7210,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C287" s="1">
         <v>45206</v>
@@ -7218,13 +7224,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C288" s="1">
         <v>45220</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E288" t="s">
         <v>411</v>
@@ -7235,13 +7241,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C289" s="1">
         <v>45234</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E289" t="s">
         <v>46</v>
@@ -7252,13 +7258,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C290" s="1">
         <v>45248</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E290" t="s">
         <v>411</v>
@@ -7269,7 +7275,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C291" s="1">
         <v>45262</v>
@@ -7283,13 +7289,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C292" s="1">
         <v>45276</v>
       </c>
       <c r="E292" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7297,7 +7303,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C293" s="1">
         <v>45290</v>
@@ -7311,13 +7317,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C294" s="1">
         <v>45304</v>
       </c>
       <c r="D294" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E294" t="s">
         <v>14</v>
@@ -7328,7 +7334,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C295" s="1">
         <v>45318</v>
@@ -7342,7 +7348,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C296" s="1">
         <v>45332</v>
@@ -7356,13 +7362,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C297" s="1">
         <v>45346</v>
       </c>
       <c r="D297" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E297" t="s">
         <v>218</v>
@@ -7373,13 +7379,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C298" s="1">
         <v>45360</v>
       </c>
       <c r="E298" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7387,7 +7393,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C299" s="1">
         <v>45374</v>
@@ -7401,7 +7407,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C300" s="1">
         <v>45388</v>
@@ -7415,7 +7421,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C301" s="1">
         <v>45402</v>
@@ -7429,7 +7435,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C302" s="1">
         <v>45416</v>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1325,7 +1325,7 @@
     <t>St. Pumba</t>
   </si>
   <si>
-    <t>S E R O S H</t>
+    <t>B E R S E R K</t>
   </si>
   <si>
     <t>Jefferson Lucas</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1478,7 +1478,7 @@
     <t>Dino111111</t>
   </si>
   <si>
-    <t>Gabriel_Henrique</t>
+    <t>- K N S -</t>
   </si>
   <si>
     <t>- War Machine -</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="D284" sqref="D284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -7181,7 +7181,7 @@
       <c r="C285" s="1">
         <v>45178</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="4" t="s">
         <v>483</v>
       </c>
       <c r="E285" t="s">

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1340,7 +1340,7 @@
     <t>Mr.Salazar</t>
   </si>
   <si>
-    <t>II GOD VLEX II</t>
+    <t>- V E N T U R E -</t>
   </si>
   <si>
     <t>iTzDark</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="D284" sqref="D284"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -6719,7 +6719,7 @@
       <c r="C255" s="1">
         <v>44741</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="4" t="s">
         <v>437</v>
       </c>
       <c r="E255" t="s">

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -755,7 +755,7 @@
     <t>JOS3</t>
   </si>
   <si>
-    <t>- T a r v o c -</t>
+    <t>SynaQB</t>
   </si>
   <si>
     <t>Danger AK 47</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="D255" sqref="D255"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -4917,7 +4917,7 @@
       <c r="C143" s="1">
         <v>43159</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" t="s">
         <v>242</v>
       </c>
       <c r="E143" t="s">

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -830,7 +830,7 @@
     <t>xx_magnus_xx</t>
   </si>
   <si>
-    <t>- Sr.Changretta -</t>
+    <t>- xA K U M A. -</t>
   </si>
   <si>
     <t>Wesleix</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -728,7 +728,7 @@
     <t>- Sra. Gloria -</t>
   </si>
   <si>
-    <t>_JohnShelby_</t>
+    <t>- M.E.L.G -</t>
   </si>
   <si>
     <t>Raxon cb</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -4849,7 +4849,7 @@
       <c r="C139" s="1">
         <v>43103</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="4" t="s">
         <v>233</v>
       </c>
       <c r="E139" t="s">

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -398,7 +398,7 @@
     <t>rvga</t>
   </si>
   <si>
-    <t>- Ispone -</t>
+    <t>- KrayuhuS -</t>
   </si>
   <si>
     <t>- hellboy -</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -911,7 +911,7 @@
     <t>Jack_Estripador</t>
   </si>
   <si>
-    <t>R u s t y - APC.</t>
+    <t>Dave.</t>
   </si>
   <si>
     <t>-Bloodflare</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -5378,7 +5378,7 @@
       <c r="C171" s="1">
         <v>43551</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" t="s">
         <v>294</v>
       </c>
       <c r="E171" t="s">

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="509">
   <si>
     <t>Nº</t>
   </si>
@@ -1551,6 +1551,9 @@
   </si>
   <si>
     <t>Mineirovski</t>
+  </si>
+  <si>
+    <t>- KingsMan -</t>
   </si>
 </sst>
 </file>
@@ -2716,10 +2719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E302"/>
+  <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -7444,6 +7447,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="303" spans="1:5">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C303" s="1">
+        <v>45430</v>
+      </c>
+      <c r="E303" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="508">
   <si>
     <t>Nº</t>
   </si>
@@ -1266,9 +1266,6 @@
   </si>
   <si>
     <t>- Jottape -</t>
-  </si>
-  <si>
-    <t>- JoHn -</t>
   </si>
   <si>
     <t>-I- PedroBoy -I-</t>
@@ -2721,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="E304" sqref="E304"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -6488,9 +6485,7 @@
       <c r="C240" s="1">
         <v>44531</v>
       </c>
-      <c r="D240" s="4" t="s">
-        <v>413</v>
-      </c>
+      <c r="D240"/>
       <c r="E240" t="s">
         <v>46</v>
       </c>
@@ -6500,13 +6495,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C241" s="1">
         <v>44545</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E241" t="s">
         <v>218</v>
@@ -6517,13 +6512,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C242" s="1">
         <v>44559</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E242" t="s">
         <v>18</v>
@@ -6534,7 +6529,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C243" s="1">
         <v>44573</v>
@@ -6548,13 +6543,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C244" s="1">
         <v>44587</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E244" t="s">
         <v>14</v>
@@ -6565,13 +6560,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C245" s="1">
         <v>44601</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E245" t="s">
         <v>46</v>
@@ -6582,7 +6577,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C246" s="1">
         <v>44615</v>
@@ -6596,7 +6591,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C247" s="1">
         <v>44629</v>
@@ -6610,7 +6605,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C248" s="1">
         <v>44643</v>
@@ -6624,13 +6619,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C249" s="1">
         <v>44657</v>
       </c>
       <c r="E249" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6638,7 +6633,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C250" s="1">
         <v>44671</v>
@@ -6652,13 +6647,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C251" s="1">
         <v>44685</v>
       </c>
       <c r="D251" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E251" t="s">
         <v>218</v>
@@ -6669,13 +6664,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C252" s="1">
         <v>44699</v>
       </c>
       <c r="D252" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E252" t="s">
         <v>18</v>
@@ -6686,7 +6681,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C253" s="1">
         <v>44713</v>
@@ -6700,16 +6695,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C254" s="1">
         <v>44727</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E254" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6717,13 +6712,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C255" s="1">
         <v>44741</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E255" t="s">
         <v>218</v>
@@ -6734,7 +6729,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C256" s="1">
         <v>44755</v>
@@ -6748,7 +6743,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C257" s="1">
         <v>44769</v>
@@ -6762,7 +6757,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C258" s="1">
         <v>44783</v>
@@ -6776,13 +6771,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C259" s="1">
         <v>44797</v>
       </c>
       <c r="E259" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6790,13 +6785,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C260" s="1">
         <v>44811</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E260" t="s">
         <v>46</v>
@@ -6807,7 +6802,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C261" s="1">
         <v>44825</v>
@@ -6821,7 +6816,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C262" s="1">
         <v>44839</v>
@@ -6835,13 +6830,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C263" s="1">
         <v>44853</v>
       </c>
       <c r="D263" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -6852,16 +6847,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C264" s="1">
         <v>44867</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E264" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6869,7 +6864,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C265" s="1">
         <v>44881</v>
@@ -6883,13 +6878,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C266" s="1">
         <v>44895</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E266" t="s">
         <v>218</v>
@@ -6900,13 +6895,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C267" s="1">
         <v>44909</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E267" t="s">
         <v>18</v>
@@ -6917,13 +6912,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C268" s="1">
         <v>44923</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E268" t="s">
         <v>411</v>
@@ -6934,13 +6929,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C269" s="1">
         <v>44937</v>
       </c>
       <c r="D269" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E269" t="s">
         <v>113</v>
@@ -6951,13 +6946,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C270" s="1">
         <v>44951</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E270" t="s">
         <v>130</v>
@@ -6968,13 +6963,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C271" s="1">
         <v>44965</v>
       </c>
       <c r="E271" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6982,13 +6977,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C272" s="1">
         <v>44979</v>
       </c>
       <c r="E272" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6996,13 +6991,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C273" s="1">
         <v>44993</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E273" t="s">
         <v>18</v>
@@ -7013,7 +7008,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C274" s="1">
         <v>45007</v>
@@ -7027,13 +7022,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C275" s="1">
         <v>45021</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E275" t="s">
         <v>14</v>
@@ -7044,7 +7039,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C276" s="1">
         <v>45052</v>
@@ -7058,7 +7053,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C277" s="1">
         <v>45066</v>
@@ -7072,7 +7067,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C278" s="1">
         <v>45080</v>
@@ -7086,7 +7081,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C279" s="1">
         <v>45094</v>
@@ -7100,13 +7095,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C280" s="1">
         <v>45108</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E280" t="s">
         <v>46</v>
@@ -7117,7 +7112,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C281" s="1">
         <v>45122</v>
@@ -7131,13 +7126,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C282" s="1">
         <v>45136</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E282" t="s">
         <v>236</v>
@@ -7148,13 +7143,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C283" s="1">
         <v>45150</v>
       </c>
       <c r="D283" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E283" t="s">
         <v>18</v>
@@ -7165,7 +7160,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C284" s="1">
         <v>45164</v>
@@ -7179,16 +7174,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C285" s="1">
         <v>45178</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E285" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7196,13 +7191,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C286" s="1">
         <v>45192</v>
       </c>
       <c r="D286" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E286" t="s">
         <v>113</v>
@@ -7213,7 +7208,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C287" s="1">
         <v>45206</v>
@@ -7227,13 +7222,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C288" s="1">
         <v>45220</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E288" t="s">
         <v>411</v>
@@ -7244,13 +7239,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C289" s="1">
         <v>45234</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E289" t="s">
         <v>46</v>
@@ -7261,13 +7256,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C290" s="1">
         <v>45248</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E290" t="s">
         <v>411</v>
@@ -7278,7 +7273,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C291" s="1">
         <v>45262</v>
@@ -7292,13 +7287,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C292" s="1">
         <v>45276</v>
       </c>
       <c r="E292" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7306,13 +7301,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C293" s="1">
         <v>45290</v>
       </c>
       <c r="E293" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7320,13 +7315,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C294" s="1">
         <v>45304</v>
       </c>
       <c r="D294" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E294" t="s">
         <v>14</v>
@@ -7337,7 +7332,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C295" s="1">
         <v>45318</v>
@@ -7351,7 +7346,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C296" s="1">
         <v>45332</v>
@@ -7365,13 +7360,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C297" s="1">
         <v>45346</v>
       </c>
       <c r="D297" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E297" t="s">
         <v>218</v>
@@ -7382,13 +7377,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C298" s="1">
         <v>45360</v>
       </c>
       <c r="E298" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7396,13 +7391,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C299" s="1">
         <v>45374</v>
       </c>
       <c r="E299" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7410,7 +7405,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C300" s="1">
         <v>45388</v>
@@ -7424,7 +7419,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C301" s="1">
         <v>45402</v>
@@ -7438,7 +7433,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C302" s="1">
         <v>45416</v>
@@ -7452,7 +7447,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C303" s="1">
         <v>45430</v>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1016,7 +1016,7 @@
     <t>IOI_FENIX_IOI</t>
   </si>
   <si>
-    <t>-x INDOMITUS</t>
+    <t>-x H A D E S</t>
   </si>
   <si>
     <t>AJA</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -6485,7 +6485,6 @@
       <c r="C240" s="1">
         <v>44531</v>
       </c>
-      <c r="D240"/>
       <c r="E240" t="s">
         <v>46</v>
       </c>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1127,7 +1127,7 @@
     <t>JG O EXTERMINADOR</t>
   </si>
   <si>
-    <t>GreyraT</t>
+    <t>Magiev</t>
   </si>
   <si>
     <t>_xX-Destroyer-Xx_</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1331,7 +1331,7 @@
     <t>-I- K A Y S E R -I-</t>
   </si>
   <si>
-    <t>- DarkShadow -</t>
+    <t>- P a r a d e X -</t>
   </si>
   <si>
     <t>Mr.Salazar</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -635,7 +635,7 @@
     <t>The Machine</t>
   </si>
   <si>
-    <t>Mr.Novack</t>
+    <t>- V N R -</t>
   </si>
   <si>
     <t>Braindead</t>
@@ -1502,7 +1502,7 @@
     <t>W I Z - 6 6 6</t>
   </si>
   <si>
-    <t>- S H A N K S -</t>
+    <t>Tx. D u r a e S</t>
   </si>
   <si>
     <t>advengerx</t>
@@ -2718,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D254" sqref="D254"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -4583,7 +4583,7 @@
       <c r="C123" s="1">
         <v>42879</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E123" t="s">
@@ -7260,7 +7260,7 @@
       <c r="C290" s="1">
         <v>45248</v>
       </c>
-      <c r="D290" s="4" t="s">
+      <c r="D290" t="s">
         <v>491</v>
       </c>
       <c r="E290" t="s">

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="509">
   <si>
     <t>Nº</t>
   </si>
@@ -1551,6 +1551,9 @@
   </si>
   <si>
     <t>- KingsMan -</t>
+  </si>
+  <si>
+    <t>G u i 4 i 2 1</t>
   </si>
 </sst>
 </file>
@@ -2716,10 +2719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E303"/>
+  <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="C302" workbookViewId="0">
+      <selection activeCell="F304" sqref="F304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -7455,6 +7458,20 @@
         <v>218</v>
       </c>
     </row>
+    <row r="304" spans="1:5">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>508</v>
+      </c>
+      <c r="C304" s="1">
+        <v>45444</v>
+      </c>
+      <c r="E304" t="s">
+        <v>494</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1400,7 +1400,7 @@
     <t>- S m i r n o f f -</t>
   </si>
   <si>
-    <t>xAkali.</t>
+    <t>-Sr.Vittar-</t>
   </si>
   <si>
     <t xml:space="preserve"> Rachel Ross ..</t>
@@ -2721,8 +2721,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="C302" workbookViewId="0">
-      <selection activeCell="F304" sqref="F304"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="D269" sqref="D269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -6936,7 +6936,7 @@
       <c r="C269" s="1">
         <v>44937</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="4" t="s">
         <v>457</v>
       </c>
       <c r="E269" t="s">

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1028,7 +1028,7 @@
     <t>Atlas</t>
   </si>
   <si>
-    <t>II Carnage II</t>
+    <t>-x S A N C H E Z -</t>
   </si>
   <si>
     <t>Jose18</t>
@@ -2721,8 +2721,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="D269" sqref="D269"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B192" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -5726,7 +5726,7 @@
       <c r="C192" s="1">
         <v>43845</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="4" t="s">
         <v>333</v>
       </c>
       <c r="E192" t="s">

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="510">
   <si>
     <t>Nº</t>
   </si>
@@ -1359,6 +1359,9 @@
   </si>
   <si>
     <t>-I-Freddy Krueger-I-</t>
+  </si>
+  <si>
+    <t>xNoir</t>
   </si>
   <si>
     <t>ZombieRat</t>
@@ -2721,8 +2724,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B192" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B254" workbookViewId="0">
+      <selection activeCell="D261" sqref="D261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -6809,6 +6812,9 @@
       <c r="C261" s="1">
         <v>44825</v>
       </c>
+      <c r="D261" t="s">
+        <v>444</v>
+      </c>
       <c r="E261" t="s">
         <v>218</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C262" s="1">
         <v>44839</v>
@@ -6832,13 +6838,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C263" s="1">
         <v>44853</v>
       </c>
       <c r="D263" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -6849,13 +6855,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C264" s="1">
         <v>44867</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E264" t="s">
         <v>426</v>
@@ -6866,7 +6872,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C265" s="1">
         <v>44881</v>
@@ -6880,13 +6886,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C266" s="1">
         <v>44895</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E266" t="s">
         <v>218</v>
@@ -6897,13 +6903,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C267" s="1">
         <v>44909</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E267" t="s">
         <v>18</v>
@@ -6914,13 +6920,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C268" s="1">
         <v>44923</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E268" t="s">
         <v>411</v>
@@ -6931,13 +6937,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C269" s="1">
         <v>44937</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E269" t="s">
         <v>113</v>
@@ -6948,13 +6954,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C270" s="1">
         <v>44951</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E270" t="s">
         <v>130</v>
@@ -6965,13 +6971,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C271" s="1">
         <v>44965</v>
       </c>
       <c r="E271" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6979,13 +6985,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C272" s="1">
         <v>44979</v>
       </c>
       <c r="E272" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6993,13 +6999,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C273" s="1">
         <v>44993</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E273" t="s">
         <v>18</v>
@@ -7010,7 +7016,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C274" s="1">
         <v>45007</v>
@@ -7024,13 +7030,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C275" s="1">
         <v>45021</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E275" t="s">
         <v>14</v>
@@ -7041,7 +7047,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C276" s="1">
         <v>45052</v>
@@ -7055,7 +7061,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C277" s="1">
         <v>45066</v>
@@ -7069,7 +7075,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C278" s="1">
         <v>45080</v>
@@ -7083,7 +7089,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C279" s="1">
         <v>45094</v>
@@ -7097,13 +7103,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C280" s="1">
         <v>45108</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E280" t="s">
         <v>46</v>
@@ -7114,7 +7120,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C281" s="1">
         <v>45122</v>
@@ -7128,13 +7134,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C282" s="1">
         <v>45136</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E282" t="s">
         <v>236</v>
@@ -7145,13 +7151,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C283" s="1">
         <v>45150</v>
       </c>
       <c r="D283" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E283" t="s">
         <v>18</v>
@@ -7162,7 +7168,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C284" s="1">
         <v>45164</v>
@@ -7176,16 +7182,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C285" s="1">
         <v>45178</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E285" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7193,13 +7199,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C286" s="1">
         <v>45192</v>
       </c>
       <c r="D286" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E286" t="s">
         <v>113</v>
@@ -7210,7 +7216,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C287" s="1">
         <v>45206</v>
@@ -7224,13 +7230,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C288" s="1">
         <v>45220</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E288" t="s">
         <v>411</v>
@@ -7241,13 +7247,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C289" s="1">
         <v>45234</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E289" t="s">
         <v>46</v>
@@ -7258,13 +7264,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C290" s="1">
         <v>45248</v>
       </c>
       <c r="D290" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E290" t="s">
         <v>411</v>
@@ -7275,7 +7281,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C291" s="1">
         <v>45262</v>
@@ -7289,13 +7295,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C292" s="1">
         <v>45276</v>
       </c>
       <c r="E292" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7303,13 +7309,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C293" s="1">
         <v>45290</v>
       </c>
       <c r="E293" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7317,13 +7323,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C294" s="1">
         <v>45304</v>
       </c>
       <c r="D294" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E294" t="s">
         <v>14</v>
@@ -7334,7 +7340,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C295" s="1">
         <v>45318</v>
@@ -7348,7 +7354,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C296" s="1">
         <v>45332</v>
@@ -7362,13 +7368,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C297" s="1">
         <v>45346</v>
       </c>
       <c r="D297" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E297" t="s">
         <v>218</v>
@@ -7379,13 +7385,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C298" s="1">
         <v>45360</v>
       </c>
       <c r="E298" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7393,13 +7399,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C299" s="1">
         <v>45374</v>
       </c>
       <c r="E299" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7407,7 +7413,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C300" s="1">
         <v>45388</v>
@@ -7421,7 +7427,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C301" s="1">
         <v>45402</v>
@@ -7435,7 +7441,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C302" s="1">
         <v>45416</v>
@@ -7449,7 +7455,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C303" s="1">
         <v>45430</v>
@@ -7463,13 +7469,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C304" s="1">
         <v>45444</v>
       </c>
       <c r="E304" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">- Fr3 - </t>
   </si>
   <si>
-    <t>- HeavyDirtySoul -</t>
+    <t>-i- xCassiopeia -i-</t>
   </si>
   <si>
     <t>A N O N Y M O U S</t>
@@ -2724,8 +2724,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B254" workbookViewId="0">
-      <selection activeCell="D261" sqref="D261"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B223" workbookViewId="0">
+      <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -824,7 +824,7 @@
     <t>Mairyantor</t>
   </si>
   <si>
-    <t>SK-Dark_Silent</t>
+    <t>DonXDoflamingo</t>
   </si>
   <si>
     <t>xx_magnus_xx</t>
@@ -2724,8 +2724,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B223" workbookViewId="0">
-      <selection activeCell="D227" sqref="D227"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B156" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -5135,7 +5135,7 @@
       <c r="C156" s="1">
         <v>43341</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" t="s">
         <v>265</v>
       </c>
       <c r="E156" t="s">

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1322,7 +1322,7 @@
     <t>St. Pumba</t>
   </si>
   <si>
-    <t>B E R S E R K</t>
+    <t>H O A R A H L O U X</t>
   </si>
   <si>
     <t>Jefferson Lucas</t>
@@ -2724,8 +2724,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B156" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B245" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -761,7 +761,7 @@
     <t>Danger AK 47</t>
   </si>
   <si>
-    <t>Yuuko Kanoe</t>
+    <t>I.L.U.S.I.O.N.I.Z.E</t>
   </si>
   <si>
     <t>Snoop Dogg_</t>
@@ -2724,8 +2724,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B245" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B144" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -1172,7 +1172,7 @@
     <t>- Fives -</t>
   </si>
   <si>
-    <t>.Wysaro.</t>
+    <t>- H i d a N A P C -</t>
   </si>
   <si>
     <t>xxthewolfxx</t>
@@ -2724,8 +2724,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B144" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B213" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -6181,7 +6181,7 @@
       <c r="C220" s="1">
         <v>44237</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="4" t="s">
         <v>381</v>
       </c>
       <c r="E220" t="s">

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -548,7 +548,7 @@
     <t>Juan.trejo.169</t>
   </si>
   <si>
-    <t>- Aquiles -</t>
+    <t>- S L E D R E S -</t>
   </si>
   <si>
     <t>Blackhunter36-</t>
@@ -2724,8 +2724,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B213" workbookViewId="0">
-      <selection activeCell="D220" sqref="D220"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -923,7 +923,7 @@
     <t>-Mr. Victor</t>
   </si>
   <si>
-    <t>- Legado -</t>
+    <t>- New Start -</t>
   </si>
   <si>
     <t>Cristopher -B.A</t>
@@ -2724,8 +2724,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B160" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -761,7 +761,7 @@
     <t>Danger AK 47</t>
   </si>
   <si>
-    <t>I.L.U.S.I.O.N.I.Z.E</t>
+    <t>Vk-47</t>
   </si>
   <si>
     <t>Snoop Dogg_</t>
@@ -2724,8 +2724,8 @@
   <sheetPr/>
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B160" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B144" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="511">
   <si>
     <t>Nº</t>
   </si>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve"> Rachel Ross ..</t>
   </si>
   <si>
-    <t>-Nessa-</t>
+    <t>-I- -DENNISS- -I-</t>
   </si>
   <si>
     <t>Pegasus</t>
@@ -1557,6 +1557,9 @@
   </si>
   <si>
     <t>G u i 4 i 2 1</t>
+  </si>
+  <si>
+    <t>- D4C -</t>
   </si>
 </sst>
 </file>
@@ -2722,10 +2725,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E304"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="B144" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="C275" sqref="C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -7478,6 +7481,20 @@
         <v>495</v>
       </c>
     </row>
+    <row r="305" spans="1:5">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C305" s="1">
+        <v>45458</v>
+      </c>
+      <c r="E305" t="s">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/xerifes.xlsx
+++ b/xerifes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="19635" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -635,7 +635,7 @@
     <t>The Machine</t>
   </si>
   <si>
-    <t>- V N R -</t>
+    <t>AIex</t>
   </si>
   <si>
     <t>Braindead</t>
@@ -2727,8 +2727,8 @@
   <sheetPr/>
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="C275" sqref="C275"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -4592,7 +4592,7 @@
       <c r="C123" s="1">
         <v>42879</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" t="s">
         <v>202</v>
       </c>
       <c r="E123" t="s">
